--- a/biology/Zoologie/Diamant_à_queue_verte/Diamant_à_queue_verte.xlsx
+++ b/biology/Zoologie/Diamant_à_queue_verte/Diamant_à_queue_verte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diamant_%C3%A0_queue_verte</t>
+          <t>Diamant_à_queue_verte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythrura hyperythra
 Le Diamant à queue verte (Erythrura hyperythra) est une espèce de passereaux appartenant à la famille des Estrildidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diamant_%C3%A0_queue_verte</t>
+          <t>Diamant_à_queue_verte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 10 cm. Il a la nuque, le dos, les ailes, la queue, le croupion et les côtés du ventre vert. Le crâne est noir puis passe au bleu. Les côtés de la tête, le menton la gorge, la poitrine, et une grande partie du ventre orange. Le bec est noir. La femelle est plus terne que le mâle.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diamant_%C3%A0_queue_verte</t>
+          <t>Diamant_à_queue_verte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit sur les petites îles de Sunda, aux Philippines, à Java Ouest, Bornéo, aux Célèbes et dans la péninsule de Malaisie.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diamant_%C3%A0_queue_verte</t>
+          <t>Diamant_à_queue_verte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peuple les bords des champs de bambous et des bois. L'humidité est importante et, dans la journée, les températures s'élèvent jusqu'à 25 °C et la nuit, elles descendent jusqu'à 0 °C.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diamant_%C3%A0_queue_verte</t>
+          <t>Diamant_à_queue_verte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se nourrit de graines, de bambous et d'herbes.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Diamant_%C3%A0_queue_verte</t>
+          <t>Diamant_à_queue_verte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau nidifie de mars à juin.
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Diamant_%C3%A0_queue_verte</t>
+          <t>Diamant_à_queue_verte</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +689,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>D'après le Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
 Erythrura hyperythra brunneiventris ;
